--- a/Module4_Kinetics/Part2_Exercise/data/growth_data.xlsx
+++ b/Module4_Kinetics/Part2_Exercise/data/growth_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaiman/opt/github/GDGA_Shortcourse/Module4_Kinetics/Part2_Exercise/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65C0DC9-1C12-874F-8420-2F658E456B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA837EE-B11B-B34C-AE5C-26EF91690610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55040" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{F27C16A2-D3E3-9E41-B4C3-49497C665493}"/>
+    <workbookView xWindow="35840" yWindow="-1100" windowWidth="38400" windowHeight="23500" xr2:uid="{F27C16A2-D3E3-9E41-B4C3-49497C665493}"/>
   </bookViews>
   <sheets>
     <sheet name="flux_data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -254,9 +254,6 @@
     <t>BIOMASS_Ec_iML1515_core_75p37M</t>
   </si>
   <si>
-    <t>Reaction</t>
-  </si>
-  <si>
     <t>Equilibrium Constant</t>
   </si>
   <si>
@@ -306,6 +303,42 @@
   </si>
   <si>
     <t>Concentration (mol * L-1)</t>
+  </si>
+  <si>
+    <t>Keq_PGI</t>
+  </si>
+  <si>
+    <t>Keq_PFK</t>
+  </si>
+  <si>
+    <t>Keq_FBP</t>
+  </si>
+  <si>
+    <t>Keq_FBA</t>
+  </si>
+  <si>
+    <t>Keq_TPI</t>
+  </si>
+  <si>
+    <t>Keq_GAPD</t>
+  </si>
+  <si>
+    <t>Keq_PGK</t>
+  </si>
+  <si>
+    <t>Keq_PGM</t>
+  </si>
+  <si>
+    <t>Keq_ENO</t>
+  </si>
+  <si>
+    <t>Keq_PYK</t>
+  </si>
+  <si>
+    <t>Keq_PPS</t>
+  </si>
+  <si>
+    <t>Keq_LDH_D</t>
   </si>
 </sst>
 </file>
@@ -849,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23182E85-A117-E547-A6C1-5BAD6EA0A455}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1652,12 +1685,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1668,7 +1701,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1679,7 +1712,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1690,7 +1723,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1701,7 +1734,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1712,7 +1745,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1723,7 +1756,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1734,7 +1767,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1745,7 +1778,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1756,7 +1789,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1767,7 +1800,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1778,7 +1811,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1789,7 +1822,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1800,7 +1833,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1811,7 +1844,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1830,28 +1863,28 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="B2" s="4">
         <v>0.36399999999999999</v>
@@ -1860,7 +1893,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="B3" s="4">
         <v>2000</v>
@@ -1869,7 +1902,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="B4" s="4">
         <v>41.5</v>
@@ -1878,7 +1911,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4">
         <v>1.6000000000000001E-4</v>
@@ -1887,7 +1920,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4">
         <v>0.10695187</v>
@@ -1896,7 +1929,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="B7" s="4">
         <v>0.45200000000000001</v>
@@ -1905,7 +1938,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="B8" s="4">
         <v>5.2999999999999998E-4</v>
@@ -1914,7 +1947,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="B9" s="4">
         <v>5.3</v>
@@ -1923,7 +1956,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="B10" s="4">
         <v>5.19</v>
@@ -1932,7 +1965,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="B11" s="4">
         <v>21739.130399999998</v>
@@ -1941,7 +1974,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B12" s="4">
         <v>2.41</v>
@@ -1950,7 +1983,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B13" s="4">
         <v>6.7000000000000002E-5</v>
